--- a/FunkcjaJezeli2020.xlsx
+++ b/FunkcjaJezeli2020.xlsx
@@ -4,19 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="11292" windowHeight="5580" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="11292" windowHeight="5580"/>
   </bookViews>
   <sheets>
     <sheet name="Zadanie 1" sheetId="4" r:id="rId1"/>
-    <sheet name="Zadanie 2" sheetId="8" r:id="rId2"/>
+    <sheet name="Zadanie 2" sheetId="5" r:id="rId2"/>
     <sheet name="Zadanie 3" sheetId="6" state="hidden" r:id="rId3"/>
+    <sheet name="Zadanie3" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="91">
+  <si>
+    <t>Nazwisko</t>
+  </si>
   <si>
     <t>TAK</t>
   </si>
@@ -66,6 +70,75 @@
     <t>Katarzyna Stolorczyk</t>
   </si>
   <si>
+    <t>Wykonaj obliczenia korzystając z funkcji warunkowej oraz stosując odpowiednie formuły adresowania komórek</t>
+  </si>
+  <si>
+    <t>Staż (w latach)</t>
+  </si>
+  <si>
+    <t>Dodatek stażowy</t>
+  </si>
+  <si>
+    <t>Wykształcenie</t>
+  </si>
+  <si>
+    <t>Dodatek za wykształcenie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do </t>
+  </si>
+  <si>
+    <t>średnie</t>
+  </si>
+  <si>
+    <t>wyższe</t>
+  </si>
+  <si>
+    <t>Płaca zasadnicza</t>
+  </si>
+  <si>
+    <t>Staż pracy</t>
+  </si>
+  <si>
+    <t>Płaca brutto</t>
+  </si>
+  <si>
+    <t>Michalak</t>
+  </si>
+  <si>
+    <t>Kurzewska</t>
+  </si>
+  <si>
+    <t>Wróbel</t>
+  </si>
+  <si>
+    <t>Jabłońska</t>
+  </si>
+  <si>
+    <t>Baraniak</t>
+  </si>
+  <si>
+    <t>Kaczmarek</t>
+  </si>
+  <si>
+    <t>- pracownikowi przysługuje dodatek stażowy wysokości 10% płacy zasadniczej, gdy staż jego pracy wynosi 5 lat lub mniej;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> w pozostałych przypadkach wysokość dodatku stażowego wynosi 15% płacy zasadniczej </t>
+  </si>
+  <si>
+    <t>- wykształcenie średnie pracownika premiowane jest dodatkiem wysokości 50 zł, wykształcenie wyższe – 90 zł</t>
+  </si>
+  <si>
+    <t>- płaca brutto = płaca zasadnicza ze wszystkimi dodatkami</t>
+  </si>
+  <si>
+    <t>- wyliczone dane wyświetl w kategorii walutowej z dokładnością do dwóch miejsc dziesiętnych</t>
+  </si>
+  <si>
+    <t>Dodatek stażowy (zł)</t>
+  </si>
+  <si>
     <t>Wypożyczalnia sprzętu sportowego</t>
   </si>
   <si>
@@ -114,6 +187,12 @@
     <t>Osoba z która spędza ponad 4h na stoku</t>
   </si>
   <si>
+    <t>Dodatek za wykształcenie i staż (zł)</t>
+  </si>
+  <si>
+    <t>Dodatek za wykształcenie (zł)</t>
+  </si>
+  <si>
     <t>Ewa Grześkowiak</t>
   </si>
   <si>
@@ -129,6 +208,9 @@
     <t>Opłata za sprzęt ze wszystkimi zniżkami</t>
   </si>
   <si>
+    <t>"- jeżeli pracownik posiada staż pracy ponad 5 lat oraz posiada wykształcenie wyższe otrzymuje jeszcze dodatek w wysokości 30zł (użyj funkcji ORAZ)</t>
+  </si>
+  <si>
     <t>"- użyj komórek D6 i D7 w formule kolumny F</t>
   </si>
   <si>
@@ -157,9 +239,6 @@
   </si>
   <si>
     <t>Udział Podatku dochodowego</t>
-  </si>
-  <si>
-    <t>Reklama</t>
   </si>
   <si>
     <t>Alfa</t>
@@ -224,28 +303,20 @@
       <t>(jest to iloraz podatku zapłaconego przez daną firmę w stosunku do sumy podatków zapłaconych przez wszystkie firmy)</t>
     </r>
   </si>
-  <si>
-    <t>5. Obliczyć wartość reklamy</t>
-  </si>
-  <si>
-    <t>12% z zysku netto gdy zysk brutto &gt; 20000 lub liczba pracowników &lt; 50</t>
-  </si>
-  <si>
-    <t>8% z zysku netto w przeciwnym przypadku.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;zł&quot;;\-#,##0.00\ &quot;zł&quot;"/>
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0\ &quot;zł&quot;"/>
     <numFmt numFmtId="166" formatCode="h:mm"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +380,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -319,6 +409,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="238"/>
     </font>
     <font>
@@ -354,7 +445,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,7 +460,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,18 +508,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -536,50 +633,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -591,6 +645,59 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -599,42 +706,67 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -652,7 +784,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -671,10 +803,52 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -689,25 +863,72 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="11" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -735,79 +956,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="20">
-    <cellStyle name="Normalny" xfId="2"/>
-    <cellStyle name="Normalny" xfId="5"/>
-    <cellStyle name="Normalny" xfId="6"/>
-    <cellStyle name="Normalny" xfId="9"/>
-    <cellStyle name="Normalny" xfId="12"/>
-    <cellStyle name="Normalny" xfId="17"/>
+  <cellStyles count="3">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Procentowy" xfId="3"/>
-    <cellStyle name="Procentowy" xfId="7"/>
-    <cellStyle name="Procentowy" xfId="10"/>
-    <cellStyle name="Procentowy" xfId="13"/>
-    <cellStyle name="Procentowy" xfId="15"/>
-    <cellStyle name="Procentowy" xfId="18"/>
-    <cellStyle name="Walutowy" xfId="4"/>
-    <cellStyle name="Walutowy" xfId="8"/>
-    <cellStyle name="Walutowy" xfId="11"/>
-    <cellStyle name="Walutowy" xfId="14"/>
-    <cellStyle name="Walutowy" xfId="16"/>
-    <cellStyle name="Walutowy" xfId="19"/>
-    <cellStyle name="Walutowy" xfId="1" builtinId="4"/>
+    <cellStyle name="Procentowy" xfId="2"/>
+    <cellStyle name="Walutowy" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1206,7 +1380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1218,43 +1392,43 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="15" thickBot="1"/>
     <row r="5" spans="2:6" ht="27" thickBot="1">
-      <c r="B5" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="34"/>
+      <c r="B5" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="79"/>
       <c r="D5" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="2:6" ht="15" thickBot="1">
-      <c r="B6" s="16" t="s">
-        <v>5</v>
+      <c r="B6" s="30" t="s">
+        <v>6</v>
       </c>
       <c r="C6" s="5">
         <v>700</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1">
-      <c r="B7" s="16" t="s">
-        <v>6</v>
+      <c r="B7" s="30" t="s">
+        <v>7</v>
       </c>
       <c r="C7" s="5">
         <v>700</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -1268,24 +1442,24 @@
     </row>
     <row r="9" spans="2:6" ht="47.4" thickBot="1">
       <c r="B9" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="18" customHeight="1" thickBot="1">
       <c r="B10" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="12">
         <v>6700</v>
@@ -1297,13 +1471,13 @@
       <c r="F10" s="12"/>
     </row>
     <row r="11" spans="2:6" ht="18" customHeight="1" thickBot="1">
-      <c r="B11" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="28">
+      <c r="B11" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="45">
         <v>12200</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="44">
         <v>7</v>
       </c>
       <c r="E11" s="13"/>
@@ -1311,7 +1485,7 @@
     </row>
     <row r="12" spans="2:6" ht="18" customHeight="1" thickBot="1">
       <c r="B12" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="12">
         <v>4750</v>
@@ -1323,13 +1497,13 @@
       <c r="F12" s="12"/>
     </row>
     <row r="13" spans="2:6" ht="18" customHeight="1" thickBot="1">
-      <c r="B13" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="28">
+      <c r="B13" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="45">
         <v>20000</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="44">
         <v>4</v>
       </c>
       <c r="E13" s="13"/>
@@ -1337,7 +1511,7 @@
     </row>
     <row r="14" spans="2:6" ht="18" customHeight="1" thickBot="1">
       <c r="B14" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="12">
         <v>2900</v>
@@ -1349,21 +1523,21 @@
       <c r="F14" s="12"/>
     </row>
     <row r="15" spans="2:6" ht="18" customHeight="1" thickBot="1">
-      <c r="B15" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="29">
+      <c r="B15" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="46">
         <v>3100</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="46">
         <v>6</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="12"/>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="15" t="s">
-        <v>38</v>
+      <c r="B17" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1377,8 +1551,8 @@
       <c r="L17" s="7"/>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="15" t="s">
-        <v>37</v>
+      <c r="B18" s="24" t="s">
+        <v>64</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1401,291 +1575,344 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H27"/>
+  <dimension ref="B2:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21">
-      <c r="A1" s="44" t="s">
+    <row r="2" spans="2:9">
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="15" thickBot="1"/>
+    <row r="4" spans="2:9" ht="53.4" thickBot="1">
+      <c r="B4" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="79"/>
+      <c r="D4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" spans="2:9" ht="15" thickBot="1">
+      <c r="B5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="18">
+        <v>5</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="18">
+        <v>50</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="2:9" ht="15" thickBot="1">
+      <c r="B6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="18">
+        <v>5</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="18">
+        <v>90</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="2:9" ht="15" thickBot="1">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+    </row>
+    <row r="8" spans="2:9" ht="66.599999999999994" thickBot="1">
+      <c r="B8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="43"/>
-    </row>
-    <row r="3" spans="1:8" ht="18">
-      <c r="A3" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.6">
-      <c r="A4" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="47">
-        <v>53</v>
-      </c>
-      <c r="C4" s="48">
-        <v>12500</v>
-      </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="49"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.6">
-      <c r="A5" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="49">
+      <c r="G8" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="24.9" customHeight="1" thickBot="1">
+      <c r="B9" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="27">
+        <v>700</v>
+      </c>
+      <c r="E9" s="26">
+        <v>4</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="28"/>
+    </row>
+    <row r="10" spans="2:9" ht="24.9" customHeight="1" thickBot="1">
+      <c r="B10" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="27">
+        <v>850</v>
+      </c>
+      <c r="E10" s="26">
+        <v>12</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="28"/>
+    </row>
+    <row r="11" spans="2:9" ht="24.9" customHeight="1" thickBot="1">
+      <c r="B11" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="27">
+        <v>1750</v>
+      </c>
+      <c r="E11" s="26">
+        <v>20</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="28"/>
+    </row>
+    <row r="12" spans="2:9" ht="24.9" customHeight="1" thickBot="1">
+      <c r="B12" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="27">
+        <v>1300</v>
+      </c>
+      <c r="E12" s="26">
+        <v>2</v>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="28"/>
+    </row>
+    <row r="13" spans="2:9" ht="24.9" customHeight="1" thickBot="1">
+      <c r="B13" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="27">
+        <v>2100</v>
+      </c>
+      <c r="E13" s="26">
+        <v>5</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="28"/>
+    </row>
+    <row r="14" spans="2:9" ht="24.9" customHeight="1" thickBot="1">
+      <c r="B14" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="27">
+        <v>2200</v>
+      </c>
+      <c r="E14" s="26">
+        <v>6</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="28"/>
+    </row>
+    <row r="17" spans="2:17" ht="21.9" customHeight="1">
+      <c r="B17" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="50">
-        <v>22450</v>
-      </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="47"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.6">
-      <c r="A6" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="47">
-        <v>8</v>
-      </c>
-      <c r="C6" s="48">
-        <v>9500</v>
-      </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="49"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.6">
-      <c r="A7" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="49">
-        <v>16</v>
-      </c>
-      <c r="C7" s="50">
-        <v>17850</v>
-      </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="47"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.6">
-      <c r="A8" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="47">
-        <v>56</v>
-      </c>
-      <c r="C8" s="48">
-        <v>24600</v>
-      </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="49"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.6">
-      <c r="A9" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="49">
-        <v>75</v>
-      </c>
-      <c r="C9" s="50">
-        <v>8500</v>
-      </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="47"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.6">
-      <c r="A10" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="47">
-        <v>12</v>
-      </c>
-      <c r="C10" s="48">
-        <v>15500</v>
-      </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="49"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.6">
-      <c r="A11" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="47"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.6">
-      <c r="A12" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="49"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.6">
-      <c r="A13" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="47"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1"/>
-    <row r="17" spans="1:5" ht="40.200000000000003">
-      <c r="A17" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="53"/>
+    </row>
+    <row r="18" spans="2:17" ht="21.9" customHeight="1">
+      <c r="B18" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="58"/>
+    </row>
+    <row r="19" spans="2:17" ht="21.9" customHeight="1">
+      <c r="B19" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="58"/>
+    </row>
+    <row r="20" spans="2:17" ht="21.9" customHeight="1">
+      <c r="B20" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="55" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="26.4">
-      <c r="A18" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="59" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="26.4">
-      <c r="A19" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-    </row>
-    <row r="20" spans="1:5" ht="53.4" thickBot="1">
-      <c r="A20" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="61"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="64" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="51"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="51"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="51"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="51"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="58"/>
+    </row>
+    <row r="21" spans="2:17" ht="21.9" customHeight="1">
+      <c r="B21" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="58"/>
+    </row>
+    <row r="22" spans="2:17" ht="21.9" customHeight="1">
+      <c r="B22" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="64"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="E18:E19"/>
+  <mergeCells count="1">
+    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1708,463 +1935,463 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="17.399999999999999">
-      <c r="D2" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="D2" s="80" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
     </row>
     <row r="4" spans="2:10" ht="57.6">
-      <c r="B4" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="31" t="s">
-        <v>36</v>
+      <c r="B4" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="65" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="22">
+      <c r="B5" s="36">
         <v>8</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="36">
         <v>12</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="23">
+      <c r="D5" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="37">
         <v>2</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="25">
+      <c r="F5" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="39">
         <f>C5-B5</f>
         <v>4</v>
       </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="18"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="32"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="22">
+      <c r="B6" s="36">
         <v>9</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="36">
         <v>10</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="23">
+      <c r="D6" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="37">
         <v>2</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="25">
+      <c r="F6" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="39">
         <f t="shared" ref="G6:G20" si="0">C6-B6</f>
         <v>1</v>
       </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="18"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="32"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="22">
+      <c r="B7" s="36">
         <v>7</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="36">
         <v>14</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="23">
+      <c r="D7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="37">
         <v>3</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="25">
+      <c r="F7" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="39">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="18"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="32"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="22">
+      <c r="B8" s="36">
         <v>15</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="36">
         <v>18</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="23">
+      <c r="D8" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="37">
         <v>3</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="25">
+      <c r="F8" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="39">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="18"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="32"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="22">
+      <c r="B9" s="36">
         <v>10</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="36">
         <v>16</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="23">
+      <c r="D9" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="37">
         <v>3</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="25">
+      <c r="F9" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="39">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="18"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="32"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="22">
+      <c r="B10" s="36">
         <v>9</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="36">
         <v>17</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="23">
+      <c r="D10" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="37">
         <v>5</v>
       </c>
-      <c r="F10" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="25">
+      <c r="F10" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="39">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="18"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="32"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="22">
+      <c r="B11" s="36">
         <v>7</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="36">
         <v>18</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="23">
+      <c r="D11" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="37">
         <v>5</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="25">
+      <c r="F11" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="39">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="18"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="32"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="22">
+      <c r="B12" s="36">
         <v>7</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="36">
         <v>15</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="23">
+      <c r="D12" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="37">
         <v>5</v>
       </c>
-      <c r="F12" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="25">
+      <c r="F12" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="39">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="18"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="32"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="22">
+      <c r="B13" s="36">
         <v>8</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="36">
         <v>14</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="23">
+      <c r="D13" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="37">
         <v>5</v>
       </c>
-      <c r="F13" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="25">
+      <c r="F13" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="39">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="18"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="32"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="22">
+      <c r="B14" s="36">
         <v>11</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="36">
         <v>14</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="23">
+      <c r="D14" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="37">
         <v>5</v>
       </c>
-      <c r="F14" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="25">
+      <c r="F14" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="39">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="18"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="32"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="22">
+      <c r="B15" s="36">
         <v>12</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="36">
         <v>16</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="23">
+      <c r="D15" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="37">
         <v>4</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="25">
+      <c r="F15" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="39">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="18"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="32"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="22">
+      <c r="B16" s="36">
         <v>11</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="36">
         <v>15</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="23">
+      <c r="D16" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="37">
         <v>4</v>
       </c>
-      <c r="F16" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="25">
+      <c r="F16" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="39">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="18"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="32"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="22">
+      <c r="B17" s="36">
         <v>10</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="36">
         <v>13</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="23">
+      <c r="D17" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="25">
+      <c r="E17" s="37">
+        <v>50</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="39">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="18"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="32"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="22">
+      <c r="B18" s="36">
         <v>10</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="36">
         <v>17</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="23">
+      <c r="D18" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="37">
         <v>6</v>
       </c>
-      <c r="F18" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" s="25">
+      <c r="F18" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="39">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="18"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="32"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="22">
+      <c r="B19" s="36">
         <v>9</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="36">
         <v>16</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="23">
+      <c r="D19" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="37">
         <v>6</v>
       </c>
-      <c r="F19" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="25">
+      <c r="F19" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="39">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="18"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="32"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="22">
+      <c r="B20" s="36">
         <v>8</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="36">
         <v>18</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="23">
+      <c r="D20" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="37">
         <v>6</v>
       </c>
-      <c r="F20" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" s="25">
+      <c r="F20" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="39">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="18"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="32"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="E21" s="20"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="E21" s="34"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="E22" s="20"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="E22" s="34"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="E23" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="21">
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="E23" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="35">
         <v>0.2</v>
       </c>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="E24" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="21">
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="E24" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="35">
         <v>0.1</v>
       </c>
     </row>
@@ -2178,4 +2405,267 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21">
+      <c r="A1" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+    </row>
+    <row r="3" spans="1:7" ht="18">
+      <c r="A3" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="68" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6">
+      <c r="A4" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="69">
+        <v>53</v>
+      </c>
+      <c r="C4" s="70">
+        <v>12500</v>
+      </c>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.6">
+      <c r="A5" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="71">
+        <v>34</v>
+      </c>
+      <c r="C5" s="72">
+        <v>22450</v>
+      </c>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.6">
+      <c r="A6" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="69">
+        <v>8</v>
+      </c>
+      <c r="C6" s="70">
+        <v>9500</v>
+      </c>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.6">
+      <c r="A7" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="71">
+        <v>16</v>
+      </c>
+      <c r="C7" s="72">
+        <v>17850</v>
+      </c>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.6">
+      <c r="A8" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="69">
+        <v>56</v>
+      </c>
+      <c r="C8" s="70">
+        <v>24600</v>
+      </c>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.6">
+      <c r="A9" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="71">
+        <v>75</v>
+      </c>
+      <c r="C9" s="72">
+        <v>8500</v>
+      </c>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.6">
+      <c r="A10" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="69">
+        <v>12</v>
+      </c>
+      <c r="C10" s="70">
+        <v>15500</v>
+      </c>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.6">
+      <c r="A11" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.6">
+      <c r="A12" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.6">
+      <c r="A13" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1"/>
+    <row r="17" spans="1:4" ht="27">
+      <c r="A17" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="26.4">
+      <c r="A18" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="89"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="92"/>
+    </row>
+    <row r="19" spans="1:4" ht="26.4">
+      <c r="A19" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="89"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="92"/>
+    </row>
+    <row r="20" spans="1:4" ht="27.6" thickBot="1">
+      <c r="A20" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="90"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="93"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="73"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="73"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="73"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="73"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>